--- a/metrics_info.xlsx
+++ b/metrics_info.xlsx
@@ -1359,18 +1359,138 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,127 +1502,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1850,82 +1850,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="44"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
     </row>
     <row r="2" spans="1:28" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="46" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="46" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="46" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="46" t="s">
+      <c r="V2" s="52"/>
+      <c r="W2" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="48"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="52"/>
       <c r="AA2" s="10" t="s">
         <v>96</v>
       </c>
@@ -1934,147 +1934,147 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="43" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="69" t="s">
         <v>98</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="45" t="s">
+      <c r="AB3" s="58" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="42"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="47"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="59" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2083,112 +2083,112 @@
       <c r="I5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="26" t="s">
+      <c r="J5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="59" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="V5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="X5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="Y5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="27" t="s">
+      <c r="Z5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AA5" s="27" t="s">
+      <c r="AA5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="26"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="59"/>
       <c r="S6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="42"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="57" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2197,113 +2197,113 @@
       <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="26"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="59"/>
       <c r="S7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="42"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="47"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="26"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="59"/>
       <c r="S8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="42"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="47"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="26"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="59"/>
       <c r="S9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="42"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="47"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A10" s="65">
+      <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="59" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -2315,71 +2315,71 @@
       <c r="I10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="24" t="s">
+      <c r="J10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="V10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="W10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="X10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Y10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="Z10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AB10" s="49" t="s">
+      <c r="AB10" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="7" t="s">
         <v>44</v>
       </c>
@@ -2389,726 +2389,867 @@
       <c r="I11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="49"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="44"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="R12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="24" t="s">
+      <c r="T12" s="54" t="s">
         <v>55</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="54" t="s">
+      <c r="V12" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="24" t="s">
+      <c r="W12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="X12" s="24" t="s">
+      <c r="X12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="Y12" s="24" t="s">
+      <c r="Y12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="Z12" s="24" t="s">
+      <c r="Z12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AA12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AB12" s="49" t="s">
+      <c r="AB12" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
       <c r="U13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="54"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="49"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="44"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
       <c r="U14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="54"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="49"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="44"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="57" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
       <c r="U15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V15" s="54"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="49"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="44"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A16" s="67"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
       <c r="U16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="54"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="49"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="44"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
       <c r="U17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="54"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="49"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="44"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A18" s="59">
+      <c r="A18" s="25">
         <v>1</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="54" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="59" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="34" t="s">
+      <c r="J18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="X18" s="34" t="s">
+      <c r="X18" s="45" t="s">
         <v>63</v>
       </c>
       <c r="Y18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Z18" s="34" t="s">
+      <c r="Z18" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="AA18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB18" s="42" t="s">
+      <c r="AA18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A19" s="69">
+      <c r="A19" s="28">
         <v>1</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="42"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="47"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70">
+      <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
       <c r="Y20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="42"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="47"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A21" s="59">
+      <c r="A21" s="25">
         <v>1</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="54" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="59" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="W21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="X21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA21" s="35" t="s">
+      <c r="J21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="W21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA21" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="AB21" s="42" t="s">
+      <c r="AB21" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A22" s="69">
+      <c r="A22" s="28">
         <v>1</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="42"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="47"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70">
+      <c r="A23" s="29">
         <v>1</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="42"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="47"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="59" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="W24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="X24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB24" s="36" t="s">
+      <c r="J24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="X24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="65" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="72" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="37"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="Q12:Q17"/>
+    <mergeCell ref="R12:R17"/>
+    <mergeCell ref="S12:S17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="O5:O9"/>
+    <mergeCell ref="P5:P9"/>
+    <mergeCell ref="Q5:Q9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
+    <mergeCell ref="V5:V9"/>
+    <mergeCell ref="R5:R9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="M5:M9"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="T12:T17"/>
+    <mergeCell ref="N12:N17"/>
+    <mergeCell ref="O12:O17"/>
+    <mergeCell ref="P12:P17"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="Z18:Z20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="W21:W23"/>
+    <mergeCell ref="X21:X23"/>
+    <mergeCell ref="Y21:Y23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="Z21:Z23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="Y5:Y9"/>
+    <mergeCell ref="Z5:Z9"/>
+    <mergeCell ref="AA5:AA9"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="E1:AB1"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="N5:N9"/>
     <mergeCell ref="AB12:AB17"/>
     <mergeCell ref="X18:X20"/>
     <mergeCell ref="AA18:AA20"/>
@@ -3133,164 +3274,23 @@
     <mergeCell ref="AB10:AB11"/>
     <mergeCell ref="W5:W9"/>
     <mergeCell ref="X5:X9"/>
-    <mergeCell ref="Y5:Y9"/>
-    <mergeCell ref="Z5:Z9"/>
-    <mergeCell ref="AA5:AA9"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="E1:AB1"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="W21:W23"/>
-    <mergeCell ref="X21:X23"/>
-    <mergeCell ref="Y21:Y23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="AA21:AA23"/>
-    <mergeCell ref="Z21:Z23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="Z18:Z20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="T12:T17"/>
-    <mergeCell ref="N12:N17"/>
-    <mergeCell ref="O12:O17"/>
-    <mergeCell ref="P12:P17"/>
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="O5:O9"/>
-    <mergeCell ref="P5:P9"/>
-    <mergeCell ref="Q5:Q9"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:U9"/>
-    <mergeCell ref="V5:V9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C12:C17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="Q12:Q17"/>
-    <mergeCell ref="R12:R17"/>
-    <mergeCell ref="S12:S17"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="R5:R9"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="M5:M9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="N5:N9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3343,216 +3343,216 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="54"/>
+      <c r="S1" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="54"/>
+      <c r="U1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="24"/>
+      <c r="V1" s="54"/>
     </row>
     <row r="2" spans="1:22" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="24"/>
+      <c r="V2" s="54"/>
     </row>
     <row r="3" spans="1:22" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24" t="s">
+      <c r="R3" s="54"/>
+      <c r="S3" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24" t="s">
+      <c r="T3" s="54"/>
+      <c r="U3" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="24"/>
+      <c r="V3" s="54"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="54"/>
+      <c r="S4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="54"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="54"/>
+      <c r="K5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24" t="s">
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="R5" s="54"/>
+      <c r="S5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24" t="s">
+      <c r="T5" s="54"/>
+      <c r="U5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
         <v>42</v>
@@ -3560,16 +3560,16 @@
       <c r="J6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24" t="s">
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
       <c r="Q6" s="3" t="s">
         <v>42</v>
       </c>
@@ -3590,11 +3590,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3614,33 +3614,33 @@
       <c r="J7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24" t="s">
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24" t="s">
+      <c r="R7" s="54"/>
+      <c r="S7" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="V7" s="24"/>
+      <c r="V7" s="54"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -3660,375 +3660,375 @@
       <c r="J8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24" t="s">
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24" t="s">
+      <c r="R8" s="54"/>
+      <c r="S8" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24" t="s">
+      <c r="T8" s="54"/>
+      <c r="U8" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="24"/>
+      <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" s="27"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="46"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V10" s="27"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="27"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="46"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="27"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="46"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="27"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="46"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V14" s="27"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="46"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V15" s="27"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="46"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V16" s="27"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" s="46"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="27"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="46"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
@@ -4044,86 +4044,86 @@
       <c r="H18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24" t="s">
+      <c r="I18" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="27"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="46"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="54"/>
+      <c r="K19" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V19" s="27"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="46"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="24" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="3" t="s">
         <v>45</v>
       </c>
@@ -4142,431 +4142,303 @@
       <c r="P20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V20" s="27"/>
+      <c r="Q20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="46"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="24" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24" t="s">
+      <c r="J21" s="54"/>
+      <c r="K21" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21" s="27"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="46"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="72"/>
+      <c r="B22" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="24" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="54"/>
+      <c r="K22" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24" t="s">
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="R22" s="24"/>
-      <c r="S22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22" s="27"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="46"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="72"/>
+      <c r="B23" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="24" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="54"/>
+      <c r="K23" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24" t="s">
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V23" s="27"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="46"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="24" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24" t="s">
+      <c r="J24" s="54"/>
+      <c r="K24" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
       <c r="Q24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="27"/>
+      <c r="S24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="46"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="72"/>
+      <c r="B25" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="24" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24" t="s">
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V25" s="27"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V25" s="46"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="72"/>
+      <c r="B26" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="24" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24" t="s">
+      <c r="J26" s="54"/>
+      <c r="K26" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="24" t="s">
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="46"/>
+      <c r="S26" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="T26" s="24"/>
-      <c r="U26" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V26" s="27"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" s="46"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="24" t="s">
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24" t="s">
+      <c r="J27" s="54"/>
+      <c r="K27" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="24" t="s">
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="46"/>
+      <c r="U27" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="V27" s="24"/>
+      <c r="V27" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:P5"/>
@@ -4591,20 +4463,148 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/metrics_info.xlsx
+++ b/metrics_info.xlsx
@@ -1382,12 +1382,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,93 +1500,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1813,7 +1813,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1850,82 +1850,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
     </row>
     <row r="2" spans="1:28" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="50" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="50" t="s">
+      <c r="V2" s="56"/>
+      <c r="W2" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="52"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="56"/>
       <c r="AA2" s="10" t="s">
         <v>96</v>
       </c>
@@ -1937,85 +1937,85 @@
       <c r="A3" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="36" t="s">
         <v>98</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="70" t="s">
+      <c r="N3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="70" t="s">
+      <c r="O3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="70" t="s">
+      <c r="P3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="70" t="s">
+      <c r="Q3" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="57" t="s">
+      <c r="R3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="T3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="57" t="s">
+      <c r="W3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="57" t="s">
+      <c r="X3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="57" t="s">
+      <c r="Z3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="57" t="s">
+      <c r="AA3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="58" t="s">
+      <c r="AB3" s="53" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2023,58 +2023,58 @@
       <c r="A4" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="47"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="50"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="32" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2083,112 +2083,112 @@
       <c r="I5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="59" t="s">
+      <c r="J5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="32" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="59" t="s">
+      <c r="T5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="46" t="s">
+      <c r="V5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="46" t="s">
+      <c r="W5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="46" t="s">
+      <c r="X5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="46" t="s">
+      <c r="Y5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="46" t="s">
+      <c r="Z5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AA5" s="46" t="s">
+      <c r="AA5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="47" t="s">
+      <c r="AB5" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="59"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="32"/>
       <c r="S6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="47"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="50"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2197,113 +2197,113 @@
       <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="59"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="32"/>
       <c r="S7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="59"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="47"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="50"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="59"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="32"/>
       <c r="S8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="59"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="47"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="50"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="59"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="59"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="47"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="50"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
+      <c r="A10" s="66">
         <v>1</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="32" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -2315,71 +2315,71 @@
       <c r="I10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="54" t="s">
+      <c r="J10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="54" t="s">
+      <c r="U10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="V10" s="54" t="s">
+      <c r="V10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="W10" s="54" t="s">
+      <c r="W10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="X10" s="54" t="s">
+      <c r="X10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="54" t="s">
+      <c r="Y10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Z10" s="54" t="s">
+      <c r="Z10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AA10" s="54" t="s">
+      <c r="AA10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AB10" s="44" t="s">
+      <c r="AB10" s="57" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="7" t="s">
         <v>44</v>
       </c>
@@ -2389,361 +2389,361 @@
       <c r="I11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="44"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="57"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="54" t="s">
+      <c r="L12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="54" t="s">
+      <c r="O12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="54" t="s">
+      <c r="P12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="54" t="s">
+      <c r="Q12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="54" t="s">
+      <c r="R12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="54" t="s">
+      <c r="S12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="54" t="s">
+      <c r="T12" s="33" t="s">
         <v>55</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="53" t="s">
+      <c r="V12" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="54" t="s">
+      <c r="W12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="X12" s="54" t="s">
+      <c r="X12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="Y12" s="54" t="s">
+      <c r="Y12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="Z12" s="54" t="s">
+      <c r="Z12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AA12" s="54" t="s">
+      <c r="AA12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AB12" s="44" t="s">
+      <c r="AB12" s="57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
       <c r="U13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="53"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="44"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="57"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
       <c r="U14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="44"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="57"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="41" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
       <c r="U15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V15" s="53"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="44"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="57"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
       <c r="U16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="53"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="44"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
       <c r="U17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="53"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="44"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="57"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>1</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="33" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="45" t="s">
+      <c r="J18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="X18" s="45" t="s">
+      <c r="X18" s="42" t="s">
         <v>63</v>
       </c>
       <c r="Y18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Z18" s="45" t="s">
+      <c r="Z18" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AA18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB18" s="47" t="s">
+      <c r="AA18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2751,157 +2751,157 @@
       <c r="A19" s="28">
         <v>1</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="47"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="50"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
       <c r="Y20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="47"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="50"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>1</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="33" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="W21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="X21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA21" s="67" t="s">
+      <c r="J21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA21" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AB21" s="47" t="s">
+      <c r="AB21" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2909,155 +2909,155 @@
       <c r="A22" s="28">
         <v>1</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="47"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="50"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>1</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="47"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="50"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="33" t="s">
         <v>75</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="W24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="X24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB24" s="65" t="s">
+      <c r="J24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="X24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="43" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3065,84 +3065,164 @@
       <c r="A25" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="66"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="Q12:Q17"/>
-    <mergeCell ref="R12:R17"/>
-    <mergeCell ref="S12:S17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="O5:O9"/>
-    <mergeCell ref="P5:P9"/>
-    <mergeCell ref="Q5:Q9"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:U9"/>
-    <mergeCell ref="V5:V9"/>
-    <mergeCell ref="R5:R9"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="M5:M9"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="AB12:AB17"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="AA18:AA20"/>
+    <mergeCell ref="AB18:AB20"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="V12:V17"/>
+    <mergeCell ref="W12:W17"/>
+    <mergeCell ref="X12:X17"/>
+    <mergeCell ref="Y12:Y17"/>
+    <mergeCell ref="Z12:Z17"/>
+    <mergeCell ref="AA12:AA17"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="W5:W9"/>
+    <mergeCell ref="X5:X9"/>
+    <mergeCell ref="Y5:Y9"/>
+    <mergeCell ref="Z5:Z9"/>
+    <mergeCell ref="AA5:AA9"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="E1:AB1"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="W21:W23"/>
+    <mergeCell ref="X21:X23"/>
+    <mergeCell ref="Y21:Y23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="Z21:Z23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="Z18:Z20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
@@ -3167,130 +3247,50 @@
     <mergeCell ref="I12:I17"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I18:I20"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="Z18:Z20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="W21:W23"/>
-    <mergeCell ref="X21:X23"/>
-    <mergeCell ref="Y21:Y23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA21:AA23"/>
-    <mergeCell ref="Z21:Z23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="Y5:Y9"/>
-    <mergeCell ref="Z5:Z9"/>
-    <mergeCell ref="AA5:AA9"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="E1:AB1"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="AB12:AB17"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="AA18:AA20"/>
-    <mergeCell ref="AB18:AB20"/>
-    <mergeCell ref="AB21:AB23"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="V12:V17"/>
-    <mergeCell ref="W12:W17"/>
-    <mergeCell ref="X12:X17"/>
-    <mergeCell ref="Y12:Y17"/>
-    <mergeCell ref="Z12:Z17"/>
-    <mergeCell ref="AA12:AA17"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="W5:W9"/>
-    <mergeCell ref="X5:X9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="O5:O9"/>
+    <mergeCell ref="P5:P9"/>
+    <mergeCell ref="Q5:Q9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
+    <mergeCell ref="V5:V9"/>
+    <mergeCell ref="R5:R9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="M5:M9"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="Q12:Q17"/>
+    <mergeCell ref="R12:R17"/>
+    <mergeCell ref="S12:S17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3343,199 +3343,199 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="33"/>
+      <c r="S1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="54"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="1:22" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="54"/>
+      <c r="V2" s="33"/>
     </row>
     <row r="3" spans="1:22" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54" t="s">
+      <c r="R3" s="33"/>
+      <c r="S3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54" t="s">
+      <c r="T3" s="33"/>
+      <c r="U3" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="V3" s="54"/>
+      <c r="V3" s="33"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="54"/>
+      <c r="V4" s="33"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="72"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54" t="s">
+      <c r="R5" s="33"/>
+      <c r="S5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54" t="s">
+      <c r="T5" s="33"/>
+      <c r="U5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="54"/>
+      <c r="V5" s="33"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="72"/>
@@ -3545,14 +3545,14 @@
       <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
         <v>42</v>
@@ -3560,16 +3560,16 @@
       <c r="J6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54" t="s">
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="3" t="s">
         <v>42</v>
       </c>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="72"/>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3614,33 +3614,33 @@
       <c r="J7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54" t="s">
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54" t="s">
+      <c r="R7" s="33"/>
+      <c r="S7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54" t="s">
+      <c r="T7" s="33"/>
+      <c r="U7" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="V7" s="54"/>
+      <c r="V7" s="33"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="72"/>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -3660,375 +3660,375 @@
       <c r="J8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54" t="s">
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54" t="s">
+      <c r="R8" s="33"/>
+      <c r="S8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54" t="s">
+      <c r="T8" s="33"/>
+      <c r="U8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="54"/>
+      <c r="V8" s="33"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" s="46"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="35"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V10" s="46"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="35"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="46"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="35"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="46"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="35"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="46"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="35"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V14" s="46"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V15" s="46"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V16" s="46"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="46"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
@@ -4044,86 +4044,86 @@
       <c r="H18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54" t="s">
+      <c r="I18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="46"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54" t="s">
+      <c r="J19" s="33"/>
+      <c r="K19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V19" s="46"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="35"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="54" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="3" t="s">
         <v>45</v>
       </c>
@@ -4142,303 +4142,431 @@
       <c r="P20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V20" s="46"/>
+      <c r="Q20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="35"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="54" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54" t="s">
+      <c r="J21" s="33"/>
+      <c r="K21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21" s="46"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="54" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54" t="s">
+      <c r="J22" s="33"/>
+      <c r="K22" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54" t="s">
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="R22" s="54"/>
-      <c r="S22" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22" s="46"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="54" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54" t="s">
+      <c r="J23" s="33"/>
+      <c r="K23" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54" t="s">
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="R23" s="54"/>
-      <c r="S23" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V23" s="46"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="54" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54" t="s">
+      <c r="J24" s="33"/>
+      <c r="K24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
       <c r="Q24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="46"/>
+      <c r="S24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46" t="s">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="54" t="s">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54" t="s">
+      <c r="J25" s="33"/>
+      <c r="K25" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54" t="s">
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="R25" s="54"/>
-      <c r="S25" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V25" s="46"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="54" t="s">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54" t="s">
+      <c r="J26" s="33"/>
+      <c r="K26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R26" s="46"/>
-      <c r="S26" s="54" t="s">
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="35"/>
+      <c r="S26" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="T26" s="54"/>
-      <c r="U26" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="V26" s="46"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="54" t="s">
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54" t="s">
+      <c r="J27" s="33"/>
+      <c r="K27" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T27" s="46"/>
-      <c r="U27" s="54" t="s">
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="35"/>
+      <c r="U27" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="V27" s="54"/>
+      <c r="V27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="K7:P7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:P5"/>
@@ -4463,148 +4591,20 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
